--- a/DB/Tablas de aprendizaje de movimientos/Slowpoke, Slowbro y Slowking.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Slowpoke, Slowbro y Slowking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Slowpoke" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Slowking" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Slowbro!$A$2:$A$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Slowking!$A$2:$A$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Slowbro!$A$2:$A$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Slowking!$A$2:$A$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Slowpoke!$A$2:$A$26</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Slowbro!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Slowking!#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="39">
   <si>
     <t>Movimiento</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Tutor</t>
   </si>
   <si>
-    <t>Danza espada</t>
-  </si>
-  <si>
     <t>Mal de ojo</t>
   </si>
   <si>
@@ -117,24 +114,6 @@
     <t>Esfera aural</t>
   </si>
   <si>
-    <t>Demolición</t>
-  </si>
-  <si>
-    <t>Puntapié</t>
-  </si>
-  <si>
-    <t>Patada salto</t>
-  </si>
-  <si>
-    <t>Llave giro</t>
-  </si>
-  <si>
-    <t>Llave corsé</t>
-  </si>
-  <si>
-    <t>Tiro vital</t>
-  </si>
-  <si>
     <t>Sustituto</t>
   </si>
   <si>
@@ -165,13 +144,13 @@
     <t>Velo sagrado</t>
   </si>
   <si>
-    <t>Acua aro</t>
-  </si>
-  <si>
     <t>Recuperación</t>
   </si>
   <si>
     <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Golpe cabeza</t>
   </si>
 </sst>
 </file>
@@ -516,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -544,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -560,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -568,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -584,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -592,7 +571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -600,7 +579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -608,15 +587,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -624,7 +603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -632,7 +611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -640,7 +619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -648,7 +627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -656,15 +635,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -672,68 +651,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -744,19 +723,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B33" sqref="A33:B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -772,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -780,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -788,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -796,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -804,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -812,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -820,7 +799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -828,7 +807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -836,23 +815,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -860,7 +839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -868,7 +847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -876,7 +855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -884,7 +863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -892,7 +871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -900,7 +879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -908,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -916,100 +895,84 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1020,19 +983,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B41" sqref="A41:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1064,15 +1027,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1088,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1192,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1208,148 +1171,84 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DB/Tablas de aprendizaje de movimientos/Slowpoke, Slowbro y Slowking.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Slowpoke, Slowbro y Slowking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
